--- a/upload/base/扫黑除恶表（模板）.xlsx
+++ b/upload/base/扫黑除恶表（模板）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="8085"/>
+    <workbookView windowWidth="20370" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>扫黑除恶等专项行动有关警情线索统计表</t>
-  </si>
-  <si>
-    <t>填报时间：</t>
-  </si>
-  <si>
-    <t>填报人：</t>
-  </si>
-  <si>
-    <t>王静</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -100,7 +88,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +97,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -116,6 +105,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -123,8 +120,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -133,6 +206,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,118 +250,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,55 +266,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,67 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,12 +434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,36 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,16 +475,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -496,8 +493,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,17 +529,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,26 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,20 +729,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,26 +1100,19 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="13.375"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="1" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1132,55 +1122,47 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>43557</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="48" customHeight="1" spans="1:8">
       <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:8">
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:8">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1189,12 +1171,12 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:8">
+    <row r="5" ht="30" customHeight="1" spans="1:8">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1203,12 +1185,12 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:8">
+    <row r="6" ht="30" customHeight="1" spans="1:8">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1217,12 +1199,12 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" ht="27" customHeight="1" spans="1:8">
+    <row r="7" ht="30" customHeight="1" spans="1:8">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1231,12 +1213,12 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" ht="27" customHeight="1" spans="1:8">
+    <row r="8" ht="30" customHeight="1" spans="1:8">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1245,12 +1227,12 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" ht="27" customHeight="1" spans="1:8">
+    <row r="9" ht="30" customHeight="1" spans="1:8">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1259,12 +1241,12 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" ht="27" customHeight="1" spans="1:8">
+    <row r="10" ht="30" customHeight="1" spans="1:8">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1273,12 +1255,12 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" ht="27" customHeight="1" spans="1:8">
+    <row r="11" ht="30" customHeight="1" spans="1:8">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1287,12 +1269,12 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" ht="26" customHeight="1" spans="1:8">
+    <row r="12" ht="30" customHeight="1" spans="1:8">
       <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1301,12 +1283,12 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" ht="27" customHeight="1" spans="1:8">
+    <row r="13" ht="30" customHeight="1" spans="1:8">
       <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1315,12 +1297,12 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" ht="27" customHeight="1" spans="1:8">
+    <row r="14" ht="30" customHeight="1" spans="1:8">
       <c r="A14" s="7">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1329,9 +1311,9 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" ht="25" customHeight="1" spans="1:8">
+    <row r="15" ht="30" customHeight="1" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1342,12 +1324,13 @@
       <c r="H15" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
